--- a/biology/Microbiologie/Aphanizomenon/Aphanizomenon.xlsx
+++ b/biology/Microbiologie/Aphanizomenon/Aphanizomenon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphanizomenon est un genre de cyanobactéries de la famille des Aphanizomenonaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (14 mai 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (14 mai 2018) :
 Aphanizomenon balticum Willén et al.
 Aphanizomenon chinense Negoro
 Aphanizomenon favaloroi S.H.Otaño
@@ -534,18 +548,18 @@
 Aphanizomenon slovenicum Rekar &amp; Hindak
 Aphanizomenon strictum Nayal
 Aphanizomenon yezoense M.Watanabe
-Selon BioLib                    (14 mai 2018)[2] :
+Selon BioLib                    (14 mai 2018) :
 Aphanizomenon aphanizomenoides (Forti) Hortobágyi &amp; Komárek, 1979
 Aphanizomenon flos-aquae (Linnaeus) Ralfs ex Bornet &amp; Flahault
 Aphanizomenon yezoense
-Selon Catalogue of Life                                   (14 mai 2018)[4] et ITIS      (14 mai 2018)[5] :
+Selon Catalogue of Life                                   (14 mai 2018) et ITIS      (14 mai 2018) :
 Aphanizomenon flosaquae J. Ralfs Ex Bornet &amp; Flah.
 Aphanizomenon holsaticum Richter
-Selon NCBI  (14 mai 2018)[6] :
+Selon NCBI  (14 mai 2018) :
 Aphanizomenon baltica
 Aphanizomenon flos-aquae
 Aphanizomenon gracile
-Selon World Register of Marine Species                               (14 mai 2018)[3] :
+Selon World Register of Marine Species                               (14 mai 2018) :
 Aphanizomenon balticum Willén &amp; al.
 Aphanizomenon chinense Negoro, 1943
 Aphanizomenon favaloroi S.H.OtaÃ±o, 2012
